--- a/python_excel_control/test.xlsx
+++ b/python_excel_control/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Desktop\test_excel_control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\common\python_excel_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531EC922-BE53-47CB-9FD0-7C4915CF71E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9373F9-D816-49ED-83E9-A2DE56FB6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
